--- a/website_content_creation/authors/Madison_McCaig/Author_form_McCaig.xlsx
+++ b/website_content_creation/authors/Madison_McCaig/Author_form_McCaig.xlsx
@@ -104,9 +104,6 @@
     <t>M.Sc. Student, McMaster University</t>
   </si>
   <si>
-    <t>madison.mccaig@canada.ca</t>
-  </si>
-  <si>
     <t>B.Sc. Environmental Science</t>
   </si>
   <si>
@@ -156,6 +153,9 @@
   </si>
   <si>
     <t>current</t>
+  </si>
+  <si>
+    <t>mccaigml@mcmaster.ca</t>
   </si>
 </sst>
 </file>
@@ -615,6 +615,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,9 +627,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="106" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -891,7 +891,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -913,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -933,7 +933,7 @@
         <v>19</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -959,11 +959,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="44"/>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
@@ -977,22 +977,22 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="C17" s="41" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>28</v>
       </c>
       <c r="C18" s="13">
         <v>2017</v>
@@ -1020,10 +1020,10 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="46"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
@@ -1035,18 +1035,18 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>29</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>31</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1079,22 +1079,22 @@
     </row>
     <row r="35" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/website_content_creation/authors/Madison_McCaig/Author_form_McCaig.xlsx
+++ b/website_content_creation/authors/Madison_McCaig/Author_form_McCaig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://041gc-my.sharepoint.com/personal/emily_smenderovac_nrcan-rncan_gc_ca/Documents/Documents/WET lab/GLFC-WET.github.io/website_content_creation/authors/Madison_McCaig/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_C3CF489B26F5C77616AD99A64D34BC21D15E06B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DEC085-FDCD-4827-BEED-C59233F861B8}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_C3CF489B26F5C77616AD99A64D34BC21D15E06B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27DB6A7D-B26A-4572-854E-4A32A408816F}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Website Profile Form</t>
   </si>
@@ -39,9 +39,6 @@
     <t>role</t>
   </si>
   <si>
-    <t>Twitter</t>
-  </si>
-  <si>
     <t>e-mail</t>
   </si>
   <si>
@@ -120,15 +117,9 @@
     <t>https://www.nrcan.gc.ca/science-and-data/research-centres-and-labs/forestry-research-centres/great-lakes-forestry-centre/13459</t>
   </si>
   <si>
-    <t>https://twitter.com/maddiemccaig?lang=en</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/mccaigm/</t>
   </si>
   <si>
-    <t>Dr. Karen Kidd and Dr. Erik Emilson</t>
-  </si>
-  <si>
     <t>Aquatic Ecology</t>
   </si>
   <si>
@@ -147,13 +138,19 @@
     <t>McMaster University</t>
   </si>
   <si>
-    <t>mccaigml@mcmaster.ca</t>
-  </si>
-  <si>
     <t>Watershed Ecology Team</t>
   </si>
   <si>
-    <t>Watershed Analyst</t>
+    <t>Forest Watershed Biologist</t>
+  </si>
+  <si>
+    <t>madison.mccaig@nrcan-rncan.gc.ca</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>https://X.com/maddiemccaig?lang=en</t>
   </si>
 </sst>
 </file>
@@ -841,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -868,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -876,108 +873,106 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
+      <c r="A5" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>33</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="39">
         <v>2023</v>
@@ -985,10 +980,10 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="C18" s="12">
         <v>2017</v>
@@ -1017,32 +1012,32 @@
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="44"/>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>27</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>29</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1070,27 +1065,27 @@
     </row>
     <row r="34" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
